--- a/REQUISITOS.xlsx
+++ b/REQUISITOS.xlsx
@@ -1,35 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28224"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anderson\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BDAC45F-0CE5-468C-8532-E7094DAF66AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB5DA12B-76A5-476B-9595-571921869779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
   <si>
     <t>REQUISITOS FUNCIONAIS</t>
   </si>
   <si>
+    <t>PRIORIDADE</t>
+  </si>
+  <si>
     <t>1. Cadastro de Publicações</t>
   </si>
   <si>
@@ -39,12 +53,18 @@
     <t>O sistema deve permitir que o administrador cadastre novas publicações, incluindo campos obrigatórios para título, autor(es), data de publicação, resumo e categorias.</t>
   </si>
   <si>
+    <t>ALTA</t>
+  </si>
+  <si>
     <t>RF1.2</t>
   </si>
   <si>
     <t>O sistema deve permitir a edição e exclusão de publicações cadastradas, acessível apenas para administradores.</t>
   </si>
   <si>
+    <t>BAIXA</t>
+  </si>
+  <si>
     <t>RF1.3</t>
   </si>
   <si>
@@ -57,62 +77,122 @@
     <t>RF2.1</t>
   </si>
   <si>
+    <t>O sistema deve permitir pesquisas por palavra-chave contidas no título e resumo das publicações.</t>
+  </si>
+  <si>
     <t>RF2.2</t>
   </si>
   <si>
-    <t>O sistema deve permitir pesquisas por palavra-chave contidas no título e resumo das publicações.</t>
-  </si>
-  <si>
     <t>O sistema deve permitir filtro e pesquisa por autor, data de publicação e categoria.</t>
   </si>
   <si>
+    <t>MÉDIA</t>
+  </si>
+  <si>
+    <t>RF2.3</t>
+  </si>
+  <si>
+    <t>O resultado da busca deve apresentar no máximo 6 resultados por página.</t>
+  </si>
+  <si>
     <t>3. Comentários e Avaliações</t>
   </si>
   <si>
+    <t>RF3.1</t>
+  </si>
+  <si>
+    <t>O sistema deve permitir que apenas usuários autenticados deixem comentários nas publicações.</t>
+  </si>
+  <si>
+    <t>RF3.2</t>
+  </si>
+  <si>
+    <t>O sistema deve permitir que usuários autenticados avaliem publicações com nota, de 1 a 5 estrelas.</t>
+  </si>
+  <si>
+    <t>4. Recomendações</t>
+  </si>
+  <si>
     <t>RF4.1</t>
   </si>
   <si>
-    <t>O sistema deve permitir que apenas usuários autenticados deixem comentários nas publicações.</t>
+    <t>O sistema deve sugerir publicações para os usuários.</t>
   </si>
   <si>
     <t>RF4.2</t>
   </si>
   <si>
-    <t>O sistema deve permitir que usuários autenticados avaliem publicações com nota, de 1 a 5 estrelas.</t>
-  </si>
-  <si>
-    <t>4. Recomendações</t>
-  </si>
-  <si>
-    <t>RF3.1</t>
-  </si>
-  <si>
-    <t>RF3.2</t>
-  </si>
-  <si>
     <t>As recomendações devem aparecer na página inicial e na visualização detalhada de cada publicação.</t>
   </si>
   <si>
-    <t>O sistema deve sugerir publicações para os usuários com base em visualizações recentes e categorias frequentemente acessadas.</t>
+    <t>RF4.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> O sistema deve sugerir publicações relacionadas com base no histórico de navegação e visualizações do usuário, exibindo uma lista de conteúdos similares ao final de cada visualização detalhada de publicação.</t>
+  </si>
+  <si>
+    <t>5. Autenticação e Perfis de Usuários</t>
+  </si>
+  <si>
+    <t>RF5.1</t>
   </si>
   <si>
     <t>REQUISITOS NÃO FUNCIONAIS</t>
   </si>
   <si>
-    <t>1. Usabilidade</t>
+    <t>1. Acessibilidade e Usabilidade</t>
   </si>
   <si>
     <t>RNF1.1</t>
   </si>
   <si>
     <t>O layout e a identidade visual devem seguir as diretrizes da Editora Unifeso.</t>
+  </si>
+  <si>
+    <t>RNF1.2</t>
+  </si>
+  <si>
+    <t>A plataforma deve ser intuitiva e acessível, considerando os diferentes perfis de usuários, incluindo compatibilidade com leitores de tela.</t>
+  </si>
+  <si>
+    <t>2. Disponibilidade e Confiabilidade</t>
+  </si>
+  <si>
+    <t>RNF2.1</t>
+  </si>
+  <si>
+    <t>O sistema deve estar disponível 99% do tempo, garantindo confiabilidade para que os usuários acessem as publicações em qualquer momento.</t>
+  </si>
+  <si>
+    <t>RNF2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> O sistema deve realizar backups automáticos das publicações e dos dados dos usuários ao menos uma vez por semana.</t>
+  </si>
+  <si>
+    <t>3. Desempenho e Tempo de Resposta</t>
+  </si>
+  <si>
+    <t>RNF3.1</t>
+  </si>
+  <si>
+    <t>A plataforma deve oferecer um tempo de resposta de no máximo 3 segundos, sendo capaz de suportar um total de 100 usuários simultâneos sem degradação de desempenho.</t>
+  </si>
+  <si>
+    <t>4. Compatibilidade</t>
+  </si>
+  <si>
+    <t>RNF4.1</t>
+  </si>
+  <si>
+    <t>A plataforma deve oferecer compatibilidade com diferentes navegadores e suporte a dispositivos móveis.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,8 +221,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,130 +531,289 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="62.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="4" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:3" ht="45.75">
+      <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="4" spans="1:3" ht="30.75">
+      <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="5" spans="1:3" ht="30.75">
+      <c r="A5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:3" ht="30.75">
+      <c r="A7" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C7" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30.75">
+      <c r="A8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30.75">
+      <c r="A9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:3" ht="30.75">
+      <c r="A11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30.75">
+      <c r="A12" s="9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30.75">
+      <c r="A15" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
+    </row>
+    <row r="16" spans="1:3" ht="60.75">
+      <c r="A16" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+    </row>
+    <row r="23" spans="1:3" ht="30.75">
+      <c r="A23" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30.75">
+      <c r="A24" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+    </row>
+    <row r="27" spans="1:3" ht="45.75">
+      <c r="A27" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="30.75">
+      <c r="A28" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+    </row>
+    <row r="30" spans="1:3" ht="45.75">
+      <c r="A30" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="B31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="8"/>
+    </row>
+    <row r="32" spans="1:3" ht="30.75">
+      <c r="A32" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33"/>
     </row>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A26:C26"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/REQUISITOS.xlsx
+++ b/REQUISITOS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28224"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anderson\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Glauber\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB5DA12B-76A5-476B-9595-571921869779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{870265FF-C0F1-4B5C-AA60-7BF3D7D9B889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
   <si>
     <t>REQUISITOS FUNCIONAIS</t>
   </si>
@@ -68,9 +68,6 @@
     <t>RF1.3</t>
   </si>
   <si>
-    <t>O sistema deve permitir o upload de arquivos em formato PDF, limitando o tamanho máximo.</t>
-  </si>
-  <si>
     <t>2. Busca e Filtragem</t>
   </si>
   <si>
@@ -186,13 +183,16 @@
   </si>
   <si>
     <t>A plataforma deve oferecer compatibilidade com diferentes navegadores e suporte a dispositivos móveis.</t>
+  </si>
+  <si>
+    <t>O sistema deve permitir o upload de arquivos em formato PDF.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -236,6 +236,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -243,13 +249,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -533,35 +532,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="62.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="62.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="8"/>
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:3" ht="45.75">
-      <c r="A3" s="9" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -571,8 +570,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30.75">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -582,224 +581,242 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30.75">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+    </row>
+    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:3" ht="30.75">
-      <c r="A7" s="9" t="s">
+      <c r="B7" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30.75">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="30.75">
-      <c r="A9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" spans="1:3" ht="30.75">
-      <c r="A11" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="2" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="30.75">
-      <c r="A12" s="9" t="s">
+      <c r="B12" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="9" t="s">
+      <c r="B14" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30.75">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="60.75">
-      <c r="A16" s="9" t="s">
+      <c r="B16" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="9" t="s">
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="4"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="B19" s="4"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="9" t="s">
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="6" t="s">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+    </row>
+    <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-    </row>
-    <row r="23" spans="1:3" ht="30.75">
-      <c r="A23" s="9" t="s">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="30.75">
-      <c r="A24" s="9" t="s">
+      <c r="B24" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="7" t="s">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+    </row>
+    <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-    </row>
-    <row r="27" spans="1:3" ht="45.75">
-      <c r="A27" s="10" t="s">
+      <c r="B27" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="30.75">
-      <c r="A28" s="10" t="s">
+      <c r="B28" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="5" t="s">
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+    </row>
+    <row r="30" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-    </row>
-    <row r="30" spans="1:3" ht="45.75">
-      <c r="A30" s="9" t="s">
+      <c r="B30" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B31" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="B31" s="3" t="s">
+      <c r="C31"/>
+    </row>
+    <row r="32" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="8"/>
-    </row>
-    <row r="32" spans="1:3" ht="30.75">
-      <c r="A32" s="9" t="s">
+      <c r="B32" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
+      <c r="C32" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33"/>
     </row>
   </sheetData>

--- a/REQUISITOS.xlsx
+++ b/REQUISITOS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Glauber\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Glauber\Desktop\Feso\MVP OFFLINE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{870265FF-C0F1-4B5C-AA60-7BF3D7D9B889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{562C98C8-0B76-4E5C-BAB3-FD1DE3274DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
   <si>
     <t>REQUISITOS FUNCIONAIS</t>
   </si>
@@ -128,12 +128,6 @@
     <t xml:space="preserve"> O sistema deve sugerir publicações relacionadas com base no histórico de navegação e visualizações do usuário, exibindo uma lista de conteúdos similares ao final de cada visualização detalhada de publicação.</t>
   </si>
   <si>
-    <t>5. Autenticação e Perfis de Usuários</t>
-  </si>
-  <si>
-    <t>RF5.1</t>
-  </si>
-  <si>
     <t>REQUISITOS NÃO FUNCIONAIS</t>
   </si>
   <si>
@@ -186,6 +180,9 @@
   </si>
   <si>
     <t>O sistema deve permitir o upload de arquivos em formato PDF.</t>
+  </si>
+  <si>
+    <t>MEDIA</t>
   </si>
 </sst>
 </file>
@@ -533,7 +530,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -586,7 +583,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>5</v>
@@ -628,6 +625,9 @@
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="C9" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
@@ -699,16 +699,11 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="B18" s="4"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -719,23 +714,23 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
     </row>
     <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>5</v>
@@ -743,28 +738,28 @@
     </row>
     <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
     </row>
     <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>8</v>
@@ -772,10 +767,10 @@
     </row>
     <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>8</v>
@@ -783,17 +778,17 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
     </row>
     <row r="30" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>8</v>
@@ -801,16 +796,16 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>5</v>
